--- a/experiments/complex_games/2015_01 Butterflies.xlsx
+++ b/experiments/complex_games/2015_01 Butterflies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11745" tabRatio="921"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11745" tabRatio="921" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary_reward" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="193">
   <si>
     <t>stepsEnd</t>
   </si>
@@ -100,9 +100,6 @@
     <t>1. REMOVE (DEL) CONTENT FROM COLUMNS A-J</t>
   </si>
   <si>
-    <t>3. COPY LINE 10 from M to Y AND SPECIAL PASTE (BY VALUES) "SUMMARY" SHEET</t>
-  </si>
-  <si>
     <t>SUMMARY</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>FEMCTS band1000</t>
-  </si>
-  <si>
-    <t>count steps equal to 9</t>
   </si>
   <si>
     <t>1/200</t>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>sampleMCTS (old)</t>
-  </si>
-  <si>
-    <t>uone noB</t>
-  </si>
-  <si>
-    <t>uone B</t>
   </si>
   <si>
     <t>do not add lines before line 13, otherwise the SUMMARY macro will not work</t>
@@ -608,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve">    public static double REWARD_DISCOUNT = 1.00</t>
+  </si>
+  <si>
+    <t>3. COPY cells from M10 to Y10 AND SPECIAL PASTE (BY VALUES) into "SUMMARY" SHEET to appropriate place (wherever you want)</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2539,11 +2529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273267744"/>
-        <c:axId val="273268304"/>
+        <c:axId val="537425840"/>
+        <c:axId val="537426400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273267744"/>
+        <c:axId val="537425840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,12 +2590,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273268304"/>
+        <c:crossAx val="537426400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273268304"/>
+        <c:axId val="537426400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2664,7 +2654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273267744"/>
+        <c:crossAx val="537425840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2678,7 +2668,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2786,7 +2775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3970,11 +3958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276318544"/>
-        <c:axId val="276319104"/>
+        <c:axId val="538178288"/>
+        <c:axId val="538178848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276318544"/>
+        <c:axId val="538178288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,12 +4019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276319104"/>
+        <c:crossAx val="538178848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276319104"/>
+        <c:axId val="538178848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="7"/>
@@ -4094,7 +4082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276318544"/>
+        <c:crossAx val="538178288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4108,7 +4096,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4216,7 +4203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5400,11 +5386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276328064"/>
-        <c:axId val="276328624"/>
+        <c:axId val="537887264"/>
+        <c:axId val="537887824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276328064"/>
+        <c:axId val="537887264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,12 +5447,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276328624"/>
+        <c:crossAx val="537887824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276328624"/>
+        <c:axId val="537887824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5523,7 +5509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276328064"/>
+        <c:crossAx val="537887264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5537,7 +5523,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7636,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7738,7 +7723,7 @@
     </row>
     <row r="5" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="6"/>
@@ -7771,7 +7756,7 @@
     </row>
     <row r="7" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="6"/>
@@ -7780,7 +7765,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="12"/>
@@ -7789,12 +7774,12 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="10"/>
       <c r="V7" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="6"/>
@@ -7803,7 +7788,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="12"/>
@@ -7814,11 +7799,11 @@
     </row>
     <row r="9" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="6"/>
@@ -7967,7 +7952,7 @@
         <v>100</v>
       </c>
       <c r="AE12" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AF12" s="29"/>
       <c r="AG12" s="29"/>
@@ -8004,7 +7989,7 @@
       <c r="R13" s="26"/>
       <c r="S13" s="37"/>
       <c r="V13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W13" s="1" t="e">
         <f t="shared" ref="W13:AC13" ca="1" si="0">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V13,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8184,7 +8169,7 @@
       <c r="R16" s="20"/>
       <c r="S16" s="37"/>
       <c r="V16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W16" s="1" t="e">
         <f t="shared" ref="W16:AC16" ca="1" si="3">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V16,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8237,7 +8222,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="37"/>
       <c r="V17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W17" s="1" t="e">
         <f t="shared" ref="W17:AC17" ca="1" si="4">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V17,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8288,7 +8273,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="37"/>
       <c r="V18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W18" s="1" t="e">
         <f t="shared" ref="W18:AD18" ca="1" si="5">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V18,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8448,7 +8433,7 @@
       </c>
       <c r="S20" s="37"/>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W20" s="1" t="e">
         <f t="shared" ref="W20:AD20" ca="1" si="7">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V20,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8604,7 +8589,7 @@
       </c>
       <c r="S22" s="37"/>
       <c r="V22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W22" s="1" t="e">
         <f t="shared" ref="W22:AD22" ca="1" si="9">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V22,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8655,7 +8640,7 @@
       <c r="R23" s="20"/>
       <c r="S23" s="37"/>
       <c r="V23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W23" s="1" t="e">
         <f t="shared" ref="W23:AD23" ca="1" si="10">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V23,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8706,7 +8691,7 @@
       <c r="R24" s="20"/>
       <c r="S24" s="37"/>
       <c r="V24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W24" s="1" t="e">
         <f t="shared" ref="W24:AD24" ca="1" si="11">INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0)-1+MATCH($V24,INDIRECT(ADDRESS(MATCH(W$12,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$12,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$11,$F$11:$J$11,0)))</f>
@@ -8981,7 +8966,7 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F31" s="18">
         <v>159.27799999999999</v>
@@ -9037,7 +9022,7 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>209.47831978319783</v>
@@ -9141,7 +9126,7 @@
         <v>100</v>
       </c>
       <c r="AE33" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
@@ -9173,7 +9158,7 @@
       <c r="R34" s="20"/>
       <c r="S34" s="37"/>
       <c r="V34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W34" s="1" t="e">
         <f ca="1">INDIRECT(ADDRESS(MATCH(W$33,$B$1:$B$174,0)-1+MATCH($V34,INDIRECT(ADDRESS(MATCH(W$33,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$33,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$32,$F$11:$J$11,0)))</f>
@@ -9425,7 +9410,7 @@
       </c>
       <c r="S37" s="37"/>
       <c r="V37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W37" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9504,7 +9489,7 @@
       </c>
       <c r="S38" s="37"/>
       <c r="V38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W38" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9558,7 +9543,7 @@
       <c r="R39" s="20"/>
       <c r="S39" s="37"/>
       <c r="V39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W39" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9666,7 +9651,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="37"/>
       <c r="V41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W41" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9773,7 +9758,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="37"/>
       <c r="V43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W43" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9824,7 +9809,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="37"/>
       <c r="V44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W44" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9875,7 +9860,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="37"/>
       <c r="V45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W45" s="1" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -10085,7 +10070,7 @@
         <v>100</v>
       </c>
       <c r="AE51" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -10104,7 +10089,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="37"/>
       <c r="V52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W52" s="2" t="e">
         <f ca="1">INDIRECT(ADDRESS(MATCH(W$51,$B$1:$B$174,0)-1+MATCH($V52,INDIRECT(ADDRESS(MATCH(W$51,$B$1:$B$174,0),4)&amp;":"&amp;ADDRESS(MATCH(X$51,$B$1:$B$174,0)-1,4)),0),5+MATCH($V$50,$F$11:$J$11,0)))</f>
@@ -10288,7 +10273,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="37"/>
       <c r="V55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W55" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -10339,7 +10324,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="37"/>
       <c r="V56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W56" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -10392,7 +10377,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="37"/>
       <c r="V57" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W57" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -10496,7 +10481,7 @@
       <c r="R59" s="20"/>
       <c r="S59" s="37"/>
       <c r="V59" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W59" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -10631,7 +10616,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="37"/>
       <c r="V61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W61" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -10682,7 +10667,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="37"/>
       <c r="V62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W62" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -10733,7 +10718,7 @@
       <c r="R63" s="20"/>
       <c r="S63" s="37"/>
       <c r="V63" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W63" s="2" t="e">
         <f t="shared" ca="1" si="15"/>
@@ -11055,10 +11040,10 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -11072,8 +11057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC4075"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:Y10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11090,7 +11075,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -11148,7 +11133,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -11212,7 +11197,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -11276,7 +11261,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -11340,7 +11325,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -11404,7 +11389,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -11444,7 +11429,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -11487,7 +11472,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -11530,7 +11515,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -11557,7 +11542,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
@@ -11573,7 +11558,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -11660,7 +11645,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -11700,7 +11685,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -11740,7 +11725,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -11780,7 +11765,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -11820,7 +11805,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -11860,7 +11845,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -11900,7 +11885,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -11940,7 +11925,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -11980,7 +11965,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -12020,7 +12005,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -12060,7 +12045,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -12085,15 +12070,6 @@
       </c>
       <c r="J21">
         <v>30</v>
-      </c>
-      <c r="M21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21">
-        <v>0.153</v>
       </c>
       <c r="AB21">
         <f t="shared" si="0"/>
@@ -12109,7 +12085,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -12134,13 +12110,6 @@
       </c>
       <c r="J22">
         <v>34</v>
-      </c>
-      <c r="M22">
-        <f>COUNTIF(F:F,"=8")</f>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0.125</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
@@ -12156,7 +12125,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -12181,10 +12150,6 @@
       </c>
       <c r="J23">
         <v>34</v>
-      </c>
-      <c r="M23">
-        <f>M22/N2</f>
-        <v>0</v>
       </c>
       <c r="AB23">
         <f t="shared" si="0"/>
@@ -12200,7 +12165,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -12240,7 +12205,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -12280,7 +12245,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -12320,7 +12285,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -12345,42 +12310,6 @@
       </c>
       <c r="J27">
         <v>28</v>
-      </c>
-      <c r="L27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27">
-        <v>1174.0920000000001</v>
-      </c>
-      <c r="N27">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="O27">
-        <v>8.0079999999999991</v>
-      </c>
-      <c r="P27">
-        <v>848.83146067415726</v>
-      </c>
-      <c r="Q27">
-        <v>8.8202247191011232</v>
-      </c>
-      <c r="S27">
-        <v>110.34817953465705</v>
-      </c>
-      <c r="T27">
-        <v>7.3770600036030767E-2</v>
-      </c>
-      <c r="U27">
-        <v>0.51967791247506134</v>
-      </c>
-      <c r="V27">
-        <v>100.36171540279113</v>
-      </c>
-      <c r="W27">
-        <v>0.47693743363383351</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>250</v>
       </c>
       <c r="AB27">
         <f t="shared" si="0"/>
@@ -12396,7 +12325,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -12421,42 +12350,6 @@
       </c>
       <c r="J28">
         <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>815.0545454545454</v>
-      </c>
-      <c r="N28">
-        <v>0.82727272727272727</v>
-      </c>
-      <c r="O28">
-        <v>8.827272727272728</v>
-      </c>
-      <c r="P28">
-        <v>603.4835164835165</v>
-      </c>
-      <c r="Q28">
-        <v>9.0989010989010985</v>
-      </c>
-      <c r="S28">
-        <v>159.0961132192129</v>
-      </c>
-      <c r="T28">
-        <v>9.2837951380365644E-2</v>
-      </c>
-      <c r="U28">
-        <v>0.70472704322801905</v>
-      </c>
-      <c r="V28">
-        <v>124.18077128540946</v>
-      </c>
-      <c r="W28">
-        <v>0.73818502788637397</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>110</v>
       </c>
       <c r="AB28">
         <f t="shared" si="0"/>
@@ -12472,7 +12365,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -12512,7 +12405,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -12552,7 +12445,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -12592,7 +12485,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -12632,7 +12525,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -12672,7 +12565,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -12712,7 +12605,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -12752,7 +12645,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -12792,7 +12685,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -12832,7 +12725,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -12872,7 +12765,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -12912,7 +12805,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -12952,7 +12845,7 @@
         <v>22</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -12992,7 +12885,7 @@
         <v>22</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -13032,7 +12925,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -13072,7 +12965,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
@@ -13112,7 +13005,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -13152,7 +13045,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -13192,7 +13085,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -13232,7 +13125,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -13272,7 +13165,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
@@ -13312,7 +13205,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -13352,7 +13245,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
@@ -13392,7 +13285,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -13432,7 +13325,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -13472,7 +13365,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -13512,7 +13405,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -13552,7 +13445,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -13592,7 +13485,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -13632,7 +13525,7 @@
         <v>22</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -13672,7 +13565,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
         <v>23</v>
@@ -13712,7 +13605,7 @@
         <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -13752,7 +13645,7 @@
         <v>22</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -13792,7 +13685,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -13832,7 +13725,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -13872,7 +13765,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -13912,7 +13805,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -13952,7 +13845,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -13992,7 +13885,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -14032,7 +13925,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
@@ -14072,7 +13965,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
@@ -14112,7 +14005,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
@@ -14152,7 +14045,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
@@ -14192,7 +14085,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
@@ -14232,7 +14125,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
@@ -14272,7 +14165,7 @@
         <v>22</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
         <v>23</v>
@@ -14312,7 +14205,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
         <v>23</v>
@@ -14352,7 +14245,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
         <v>23</v>
@@ -14392,7 +14285,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -14432,7 +14325,7 @@
         <v>22</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
@@ -14472,7 +14365,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -14512,7 +14405,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
@@ -14552,7 +14445,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
@@ -14592,7 +14485,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -14632,7 +14525,7 @@
         <v>22</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -14672,7 +14565,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -14712,7 +14605,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -14752,7 +14645,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -14792,7 +14685,7 @@
         <v>22</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -14832,7 +14725,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -14872,7 +14765,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -14912,7 +14805,7 @@
         <v>22</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
@@ -14952,7 +14845,7 @@
         <v>22</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -14992,7 +14885,7 @@
         <v>22</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -15032,7 +14925,7 @@
         <v>22</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
@@ -15072,7 +14965,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
@@ -15112,7 +15005,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -15152,7 +15045,7 @@
         <v>22</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -15192,7 +15085,7 @@
         <v>22</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -15232,7 +15125,7 @@
         <v>22</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -15272,7 +15165,7 @@
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -15312,7 +15205,7 @@
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -15352,7 +15245,7 @@
         <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -15392,7 +15285,7 @@
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
@@ -15432,7 +15325,7 @@
         <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -15472,7 +15365,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -15512,7 +15405,7 @@
         <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
@@ -15552,7 +15445,7 @@
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -15592,7 +15485,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
@@ -15632,7 +15525,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
@@ -15672,7 +15565,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -15712,7 +15605,7 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
         <v>23</v>
@@ -15752,7 +15645,7 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
         <v>23</v>
@@ -15792,7 +15685,7 @@
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
@@ -15832,7 +15725,7 @@
         <v>22</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
@@ -15872,7 +15765,7 @@
         <v>22</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
         <v>23</v>
@@ -15912,7 +15805,7 @@
         <v>22</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
@@ -15952,7 +15845,7 @@
         <v>22</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -15992,7 +15885,7 @@
         <v>22</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -16032,7 +15925,7 @@
         <v>22</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
@@ -16072,7 +15965,7 @@
         <v>22</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
@@ -16112,7 +16005,7 @@
         <v>22</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
         <v>23</v>
@@ -16152,7 +16045,7 @@
         <v>22</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s">
         <v>23</v>
@@ -16192,7 +16085,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
@@ -16232,7 +16125,7 @@
         <v>22</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -16272,7 +16165,7 @@
         <v>22</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
@@ -16312,7 +16205,7 @@
         <v>22</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -16352,7 +16245,7 @@
         <v>22</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
@@ -16392,7 +16285,7 @@
         <v>22</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -16432,7 +16325,7 @@
         <v>22</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
@@ -16472,7 +16365,7 @@
         <v>22</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
@@ -16512,7 +16405,7 @@
         <v>22</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
@@ -16552,7 +16445,7 @@
         <v>22</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s">
         <v>23</v>
@@ -16592,7 +16485,7 @@
         <v>22</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C132" t="s">
         <v>23</v>
@@ -16632,7 +16525,7 @@
         <v>22</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
@@ -16672,7 +16565,7 @@
         <v>22</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C134" t="s">
         <v>23</v>
@@ -16712,7 +16605,7 @@
         <v>22</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
@@ -16752,7 +16645,7 @@
         <v>22</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C136" t="s">
         <v>23</v>
@@ -16792,7 +16685,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C137" t="s">
         <v>23</v>
@@ -16832,7 +16725,7 @@
         <v>22</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C138" t="s">
         <v>23</v>
@@ -16872,7 +16765,7 @@
         <v>22</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
@@ -16912,7 +16805,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C140" t="s">
         <v>23</v>
@@ -16952,7 +16845,7 @@
         <v>22</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C141" t="s">
         <v>23</v>
@@ -16992,7 +16885,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C142" t="s">
         <v>23</v>
@@ -17032,7 +16925,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
@@ -17072,7 +16965,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C144" t="s">
         <v>23</v>
@@ -17112,7 +17005,7 @@
         <v>22</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C145" t="s">
         <v>23</v>
@@ -17152,7 +17045,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -17192,7 +17085,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C147" t="s">
         <v>23</v>
@@ -17232,7 +17125,7 @@
         <v>22</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C148" t="s">
         <v>23</v>
@@ -17272,7 +17165,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C149" t="s">
         <v>23</v>
@@ -17312,7 +17205,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C150" t="s">
         <v>23</v>
@@ -17352,7 +17245,7 @@
         <v>22</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C151" t="s">
         <v>23</v>
@@ -17392,7 +17285,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C152" t="s">
         <v>23</v>
@@ -17432,7 +17325,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C153" t="s">
         <v>23</v>
@@ -17472,7 +17365,7 @@
         <v>22</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C154" t="s">
         <v>23</v>
@@ -17512,7 +17405,7 @@
         <v>22</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C155" t="s">
         <v>23</v>
@@ -17552,7 +17445,7 @@
         <v>22</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C156" t="s">
         <v>23</v>
@@ -17592,7 +17485,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C157" t="s">
         <v>23</v>
@@ -17632,7 +17525,7 @@
         <v>22</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C158" t="s">
         <v>23</v>
@@ -17672,7 +17565,7 @@
         <v>22</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
@@ -17712,7 +17605,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C160" t="s">
         <v>23</v>
@@ -17752,7 +17645,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C161" t="s">
         <v>23</v>
@@ -17792,7 +17685,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C162" t="s">
         <v>23</v>
@@ -17832,7 +17725,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -17872,7 +17765,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C164" t="s">
         <v>23</v>
@@ -17912,7 +17805,7 @@
         <v>22</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C165" t="s">
         <v>23</v>
@@ -17952,7 +17845,7 @@
         <v>22</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -17992,7 +17885,7 @@
         <v>22</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -18032,7 +17925,7 @@
         <v>22</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -18072,7 +17965,7 @@
         <v>22</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -18112,7 +18005,7 @@
         <v>22</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -18152,7 +18045,7 @@
         <v>22</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -18192,7 +18085,7 @@
         <v>22</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -18232,7 +18125,7 @@
         <v>22</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
@@ -18272,7 +18165,7 @@
         <v>22</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C174" t="s">
         <v>23</v>
@@ -18312,7 +18205,7 @@
         <v>22</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C175" t="s">
         <v>23</v>
@@ -18352,7 +18245,7 @@
         <v>22</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -18392,7 +18285,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
@@ -18432,7 +18325,7 @@
         <v>22</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C178" t="s">
         <v>23</v>
@@ -18472,7 +18365,7 @@
         <v>22</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C179" t="s">
         <v>23</v>
@@ -18512,7 +18405,7 @@
         <v>22</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C180" t="s">
         <v>23</v>
@@ -18552,7 +18445,7 @@
         <v>22</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
@@ -18592,7 +18485,7 @@
         <v>22</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -18632,7 +18525,7 @@
         <v>22</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C183" t="s">
         <v>23</v>
@@ -18672,7 +18565,7 @@
         <v>22</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -18712,7 +18605,7 @@
         <v>22</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C185" t="s">
         <v>23</v>
@@ -18752,7 +18645,7 @@
         <v>22</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C186" t="s">
         <v>23</v>
@@ -18792,7 +18685,7 @@
         <v>22</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C187" t="s">
         <v>23</v>
@@ -18832,7 +18725,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C188" t="s">
         <v>23</v>
@@ -18872,7 +18765,7 @@
         <v>22</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C189" t="s">
         <v>23</v>
@@ -18912,7 +18805,7 @@
         <v>22</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -18952,7 +18845,7 @@
         <v>22</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -18992,7 +18885,7 @@
         <v>22</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -19032,7 +18925,7 @@
         <v>22</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -19072,7 +18965,7 @@
         <v>22</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -19112,7 +19005,7 @@
         <v>22</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -19152,7 +19045,7 @@
         <v>22</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -19192,7 +19085,7 @@
         <v>22</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C197" t="s">
         <v>23</v>
@@ -19232,7 +19125,7 @@
         <v>22</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C198" t="s">
         <v>23</v>
@@ -19272,7 +19165,7 @@
         <v>22</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C199" t="s">
         <v>23</v>
@@ -19312,7 +19205,7 @@
         <v>22</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C200" t="s">
         <v>23</v>
@@ -19352,7 +19245,7 @@
         <v>22</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C201" t="s">
         <v>23</v>
@@ -19392,7 +19285,7 @@
         <v>22</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C202" t="s">
         <v>23</v>
@@ -19432,7 +19325,7 @@
         <v>22</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C203" t="s">
         <v>23</v>
@@ -19472,7 +19365,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C204" t="s">
         <v>23</v>
@@ -19512,7 +19405,7 @@
         <v>22</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C205" t="s">
         <v>23</v>
@@ -19552,7 +19445,7 @@
         <v>22</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
@@ -19592,7 +19485,7 @@
         <v>22</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C207" t="s">
         <v>23</v>
@@ -19632,7 +19525,7 @@
         <v>22</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C208" t="s">
         <v>23</v>
@@ -19672,7 +19565,7 @@
         <v>22</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C209" t="s">
         <v>23</v>
@@ -19712,7 +19605,7 @@
         <v>22</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C210" t="s">
         <v>23</v>
@@ -19752,7 +19645,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C211" t="s">
         <v>23</v>
@@ -19792,7 +19685,7 @@
         <v>22</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C212" t="s">
         <v>23</v>
@@ -19832,7 +19725,7 @@
         <v>22</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C213" t="s">
         <v>23</v>
@@ -19872,7 +19765,7 @@
         <v>22</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C214" t="s">
         <v>23</v>
@@ -19912,7 +19805,7 @@
         <v>22</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C215" t="s">
         <v>23</v>
@@ -19952,7 +19845,7 @@
         <v>22</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C216" t="s">
         <v>23</v>
@@ -19992,7 +19885,7 @@
         <v>22</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C217" t="s">
         <v>23</v>
@@ -20032,7 +19925,7 @@
         <v>22</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C218" t="s">
         <v>23</v>
@@ -20072,7 +19965,7 @@
         <v>22</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C219" t="s">
         <v>23</v>
@@ -20112,7 +20005,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C220" t="s">
         <v>23</v>
@@ -20152,7 +20045,7 @@
         <v>22</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C221" t="s">
         <v>23</v>
@@ -20192,7 +20085,7 @@
         <v>22</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C222" t="s">
         <v>23</v>
@@ -20232,7 +20125,7 @@
         <v>22</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C223" t="s">
         <v>23</v>
@@ -20272,7 +20165,7 @@
         <v>22</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C224" t="s">
         <v>23</v>
@@ -20312,7 +20205,7 @@
         <v>22</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C225" t="s">
         <v>23</v>
@@ -20352,7 +20245,7 @@
         <v>22</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C226" t="s">
         <v>23</v>
@@ -20392,7 +20285,7 @@
         <v>22</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C227" t="s">
         <v>23</v>
@@ -20432,7 +20325,7 @@
         <v>22</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C228" t="s">
         <v>23</v>
@@ -20472,7 +20365,7 @@
         <v>22</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C229" t="s">
         <v>23</v>
@@ -20512,7 +20405,7 @@
         <v>22</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C230" t="s">
         <v>23</v>
@@ -20552,7 +20445,7 @@
         <v>22</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C231" t="s">
         <v>23</v>
@@ -20592,7 +20485,7 @@
         <v>22</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C232" t="s">
         <v>23</v>
@@ -20632,7 +20525,7 @@
         <v>22</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C233" t="s">
         <v>23</v>
@@ -20672,7 +20565,7 @@
         <v>22</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C234" t="s">
         <v>23</v>
@@ -20712,7 +20605,7 @@
         <v>22</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C235" t="s">
         <v>23</v>
@@ -20752,7 +20645,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C236" t="s">
         <v>23</v>
@@ -20792,7 +20685,7 @@
         <v>22</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C237" t="s">
         <v>23</v>
@@ -20832,7 +20725,7 @@
         <v>22</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C238" t="s">
         <v>23</v>
@@ -20872,7 +20765,7 @@
         <v>22</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" t="s">
         <v>23</v>
@@ -20912,7 +20805,7 @@
         <v>22</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C240" t="s">
         <v>23</v>
@@ -20952,7 +20845,7 @@
         <v>22</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C241" t="s">
         <v>23</v>
@@ -20992,7 +20885,7 @@
         <v>22</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C242" t="s">
         <v>23</v>
@@ -21032,7 +20925,7 @@
         <v>22</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C243" t="s">
         <v>23</v>
@@ -21072,7 +20965,7 @@
         <v>22</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C244" t="s">
         <v>23</v>
@@ -21112,7 +21005,7 @@
         <v>22</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C245" t="s">
         <v>23</v>
@@ -21152,7 +21045,7 @@
         <v>22</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C246" t="s">
         <v>23</v>
@@ -21192,7 +21085,7 @@
         <v>22</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C247" t="s">
         <v>23</v>
@@ -21232,7 +21125,7 @@
         <v>22</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C248" t="s">
         <v>23</v>
@@ -21272,7 +21165,7 @@
         <v>22</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C249" t="s">
         <v>23</v>
@@ -21312,7 +21205,7 @@
         <v>22</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C250" t="s">
         <v>23</v>
@@ -21352,7 +21245,7 @@
         <v>22</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C251" t="s">
         <v>23</v>
@@ -21392,7 +21285,7 @@
         <v>22</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C252" t="s">
         <v>23</v>
@@ -21432,7 +21325,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C253" t="s">
         <v>23</v>
@@ -21472,7 +21365,7 @@
         <v>22</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C254" t="s">
         <v>23</v>
@@ -21512,7 +21405,7 @@
         <v>22</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C255" t="s">
         <v>23</v>
@@ -21552,7 +21445,7 @@
         <v>22</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C256" t="s">
         <v>23</v>
@@ -21592,7 +21485,7 @@
         <v>22</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C257" t="s">
         <v>23</v>
@@ -21632,7 +21525,7 @@
         <v>22</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C258" t="s">
         <v>23</v>
@@ -21672,7 +21565,7 @@
         <v>22</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C259" t="s">
         <v>23</v>
@@ -21712,7 +21605,7 @@
         <v>22</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C260" t="s">
         <v>23</v>
@@ -21752,7 +21645,7 @@
         <v>22</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C261" t="s">
         <v>23</v>
@@ -21792,7 +21685,7 @@
         <v>22</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C262" t="s">
         <v>23</v>
@@ -21832,7 +21725,7 @@
         <v>22</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C263" t="s">
         <v>23</v>
@@ -21872,7 +21765,7 @@
         <v>22</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C264" t="s">
         <v>23</v>
@@ -21912,7 +21805,7 @@
         <v>22</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C265" t="s">
         <v>23</v>
@@ -21952,7 +21845,7 @@
         <v>22</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
@@ -21992,7 +21885,7 @@
         <v>22</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C267" t="s">
         <v>23</v>
@@ -22032,7 +21925,7 @@
         <v>22</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C268" t="s">
         <v>23</v>
@@ -22072,7 +21965,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C269" t="s">
         <v>23</v>
@@ -22112,7 +22005,7 @@
         <v>22</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" t="s">
         <v>23</v>
@@ -22152,7 +22045,7 @@
         <v>22</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C271" t="s">
         <v>23</v>
@@ -22192,7 +22085,7 @@
         <v>22</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C272" t="s">
         <v>23</v>
@@ -22232,7 +22125,7 @@
         <v>22</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C273" t="s">
         <v>23</v>
@@ -22272,7 +22165,7 @@
         <v>22</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C274" t="s">
         <v>23</v>
@@ -22312,7 +22205,7 @@
         <v>22</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C275" t="s">
         <v>23</v>
@@ -22352,7 +22245,7 @@
         <v>22</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C276" t="s">
         <v>23</v>
@@ -22392,7 +22285,7 @@
         <v>22</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C277" t="s">
         <v>23</v>
@@ -22432,7 +22325,7 @@
         <v>22</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C278" t="s">
         <v>23</v>
@@ -22472,7 +22365,7 @@
         <v>22</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C279" t="s">
         <v>23</v>
@@ -22512,7 +22405,7 @@
         <v>22</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C280" t="s">
         <v>23</v>
@@ -22552,7 +22445,7 @@
         <v>22</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C281" t="s">
         <v>23</v>
@@ -22592,7 +22485,7 @@
         <v>22</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C282" t="s">
         <v>23</v>
@@ -22632,7 +22525,7 @@
         <v>22</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C283" t="s">
         <v>23</v>
@@ -22672,7 +22565,7 @@
         <v>22</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C284" t="s">
         <v>23</v>
@@ -22712,7 +22605,7 @@
         <v>22</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C285" t="s">
         <v>23</v>
@@ -22752,7 +22645,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C286" t="s">
         <v>23</v>
@@ -22792,7 +22685,7 @@
         <v>22</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C287" t="s">
         <v>23</v>
@@ -22832,7 +22725,7 @@
         <v>22</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C288" t="s">
         <v>23</v>
@@ -22872,7 +22765,7 @@
         <v>22</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C289" t="s">
         <v>23</v>
@@ -22912,7 +22805,7 @@
         <v>22</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C290" t="s">
         <v>23</v>
@@ -22952,7 +22845,7 @@
         <v>22</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C291" t="s">
         <v>23</v>
@@ -22992,7 +22885,7 @@
         <v>22</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C292" t="s">
         <v>23</v>
@@ -23032,7 +22925,7 @@
         <v>22</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C293" t="s">
         <v>23</v>
@@ -23072,7 +22965,7 @@
         <v>22</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C294" t="s">
         <v>23</v>
@@ -23112,7 +23005,7 @@
         <v>22</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C295" t="s">
         <v>23</v>
@@ -23152,7 +23045,7 @@
         <v>22</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C296" t="s">
         <v>23</v>
@@ -23192,7 +23085,7 @@
         <v>22</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C297" t="s">
         <v>23</v>
@@ -23232,7 +23125,7 @@
         <v>22</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C298" t="s">
         <v>23</v>
@@ -23272,7 +23165,7 @@
         <v>22</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C299" t="s">
         <v>23</v>
@@ -23312,7 +23205,7 @@
         <v>22</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C300" t="s">
         <v>23</v>
@@ -23352,7 +23245,7 @@
         <v>22</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C301" t="s">
         <v>23</v>
@@ -23392,7 +23285,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C302" t="s">
         <v>23</v>
@@ -23432,7 +23325,7 @@
         <v>22</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C303" t="s">
         <v>23</v>
@@ -23472,7 +23365,7 @@
         <v>22</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C304" t="s">
         <v>23</v>
@@ -23512,7 +23405,7 @@
         <v>22</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C305" t="s">
         <v>23</v>
@@ -23552,7 +23445,7 @@
         <v>22</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C306" t="s">
         <v>23</v>
@@ -23592,7 +23485,7 @@
         <v>22</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C307" t="s">
         <v>23</v>
@@ -23632,7 +23525,7 @@
         <v>22</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C308" t="s">
         <v>23</v>
@@ -23672,7 +23565,7 @@
         <v>22</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C309" t="s">
         <v>23</v>
@@ -23712,7 +23605,7 @@
         <v>22</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C310" t="s">
         <v>23</v>
@@ -23752,7 +23645,7 @@
         <v>22</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C311" t="s">
         <v>23</v>
@@ -23792,7 +23685,7 @@
         <v>22</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C312" t="s">
         <v>23</v>
@@ -23832,7 +23725,7 @@
         <v>22</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C313" t="s">
         <v>23</v>
@@ -23872,7 +23765,7 @@
         <v>22</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C314" t="s">
         <v>23</v>
@@ -23912,7 +23805,7 @@
         <v>22</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C315" t="s">
         <v>23</v>
@@ -23952,7 +23845,7 @@
         <v>22</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C316" t="s">
         <v>23</v>
@@ -23992,7 +23885,7 @@
         <v>22</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C317" t="s">
         <v>23</v>
@@ -24032,7 +23925,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C318" t="s">
         <v>23</v>
@@ -24072,7 +23965,7 @@
         <v>22</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C319" t="s">
         <v>23</v>
@@ -24112,7 +24005,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C320" t="s">
         <v>23</v>
@@ -24152,7 +24045,7 @@
         <v>22</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C321" t="s">
         <v>23</v>
@@ -24192,7 +24085,7 @@
         <v>22</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C322" t="s">
         <v>23</v>
@@ -24232,7 +24125,7 @@
         <v>22</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C323" t="s">
         <v>23</v>
@@ -24272,7 +24165,7 @@
         <v>22</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C324" t="s">
         <v>23</v>
@@ -24312,7 +24205,7 @@
         <v>22</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C325" t="s">
         <v>23</v>
@@ -24352,7 +24245,7 @@
         <v>22</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C326" t="s">
         <v>23</v>
@@ -24392,7 +24285,7 @@
         <v>22</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C327" t="s">
         <v>23</v>
@@ -24432,7 +24325,7 @@
         <v>22</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C328" t="s">
         <v>23</v>
@@ -24472,7 +24365,7 @@
         <v>22</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C329" t="s">
         <v>23</v>
@@ -24512,7 +24405,7 @@
         <v>22</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C330" t="s">
         <v>23</v>
@@ -24552,7 +24445,7 @@
         <v>22</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C331" t="s">
         <v>23</v>
@@ -24592,7 +24485,7 @@
         <v>22</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C332" t="s">
         <v>23</v>
@@ -24632,7 +24525,7 @@
         <v>22</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C333" t="s">
         <v>23</v>
@@ -24672,7 +24565,7 @@
         <v>22</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C334" t="s">
         <v>23</v>
@@ -24712,7 +24605,7 @@
         <v>22</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C335" t="s">
         <v>23</v>
@@ -24752,7 +24645,7 @@
         <v>22</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C336" t="s">
         <v>23</v>
@@ -24792,7 +24685,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C337" t="s">
         <v>23</v>
@@ -24832,7 +24725,7 @@
         <v>22</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C338" t="s">
         <v>23</v>
@@ -24872,7 +24765,7 @@
         <v>22</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C339" t="s">
         <v>23</v>
@@ -24912,7 +24805,7 @@
         <v>22</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C340" t="s">
         <v>23</v>
@@ -24952,7 +24845,7 @@
         <v>22</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C341" t="s">
         <v>23</v>
@@ -24992,7 +24885,7 @@
         <v>22</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C342" t="s">
         <v>23</v>
@@ -25032,7 +24925,7 @@
         <v>22</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C343" t="s">
         <v>23</v>
@@ -25072,7 +24965,7 @@
         <v>22</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C344" t="s">
         <v>23</v>
@@ -25112,7 +25005,7 @@
         <v>22</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C345" t="s">
         <v>23</v>
@@ -25152,7 +25045,7 @@
         <v>22</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C346" t="s">
         <v>23</v>
@@ -25192,7 +25085,7 @@
         <v>22</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C347" t="s">
         <v>23</v>
@@ -25232,7 +25125,7 @@
         <v>22</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C348" t="s">
         <v>23</v>
@@ -25272,7 +25165,7 @@
         <v>22</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C349" t="s">
         <v>23</v>
@@ -25312,7 +25205,7 @@
         <v>22</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C350" t="s">
         <v>23</v>
@@ -25352,7 +25245,7 @@
         <v>22</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C351" t="s">
         <v>23</v>
@@ -25392,7 +25285,7 @@
         <v>22</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C352" t="s">
         <v>23</v>
@@ -25432,7 +25325,7 @@
         <v>22</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C353" t="s">
         <v>23</v>
@@ -25472,7 +25365,7 @@
         <v>22</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C354" t="s">
         <v>23</v>
@@ -25512,7 +25405,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C355" t="s">
         <v>23</v>
@@ -25552,7 +25445,7 @@
         <v>22</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C356" t="s">
         <v>23</v>
@@ -25592,7 +25485,7 @@
         <v>22</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C357" t="s">
         <v>23</v>
@@ -25632,7 +25525,7 @@
         <v>22</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C358" t="s">
         <v>23</v>
@@ -25672,7 +25565,7 @@
         <v>22</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C359" t="s">
         <v>23</v>
@@ -25712,7 +25605,7 @@
         <v>22</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C360" t="s">
         <v>23</v>
@@ -25752,7 +25645,7 @@
         <v>22</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C361" t="s">
         <v>23</v>
@@ -25792,7 +25685,7 @@
         <v>22</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C362" t="s">
         <v>23</v>
@@ -25832,7 +25725,7 @@
         <v>22</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C363" t="s">
         <v>23</v>
@@ -25872,7 +25765,7 @@
         <v>22</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C364" t="s">
         <v>23</v>
@@ -25912,7 +25805,7 @@
         <v>22</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C365" t="s">
         <v>23</v>
@@ -25952,7 +25845,7 @@
         <v>22</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C366" t="s">
         <v>23</v>
@@ -25992,7 +25885,7 @@
         <v>22</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C367" t="s">
         <v>23</v>
@@ -26032,7 +25925,7 @@
         <v>22</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C368" t="s">
         <v>23</v>
@@ -26072,7 +25965,7 @@
         <v>22</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C369" t="s">
         <v>23</v>
@@ -26112,7 +26005,7 @@
         <v>22</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C370" t="s">
         <v>23</v>
@@ -26152,7 +26045,7 @@
         <v>22</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C371" t="s">
         <v>23</v>
@@ -26192,7 +26085,7 @@
         <v>22</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C372" t="s">
         <v>23</v>
@@ -26232,7 +26125,7 @@
         <v>22</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C373" t="s">
         <v>23</v>
@@ -26272,7 +26165,7 @@
         <v>22</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C374" t="s">
         <v>23</v>
@@ -26312,7 +26205,7 @@
         <v>22</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C375" t="s">
         <v>23</v>
@@ -26352,7 +26245,7 @@
         <v>22</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C376" t="s">
         <v>23</v>
@@ -26392,7 +26285,7 @@
         <v>22</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C377" t="s">
         <v>23</v>
@@ -26432,7 +26325,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C378" t="s">
         <v>23</v>
@@ -26472,7 +26365,7 @@
         <v>22</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C379" t="s">
         <v>23</v>
@@ -26512,7 +26405,7 @@
         <v>22</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C380" t="s">
         <v>23</v>
@@ -26552,7 +26445,7 @@
         <v>22</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C381" t="s">
         <v>23</v>
@@ -26592,7 +26485,7 @@
         <v>22</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C382" t="s">
         <v>23</v>
@@ -26632,7 +26525,7 @@
         <v>22</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C383" t="s">
         <v>23</v>
@@ -26672,7 +26565,7 @@
         <v>22</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C384" t="s">
         <v>23</v>
@@ -26712,7 +26605,7 @@
         <v>22</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C385" t="s">
         <v>23</v>
@@ -26752,7 +26645,7 @@
         <v>22</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C386" t="s">
         <v>23</v>
@@ -26792,7 +26685,7 @@
         <v>22</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C387" t="s">
         <v>23</v>
@@ -26832,7 +26725,7 @@
         <v>22</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C388" t="s">
         <v>23</v>
@@ -26872,7 +26765,7 @@
         <v>22</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C389" t="s">
         <v>23</v>
@@ -26912,7 +26805,7 @@
         <v>22</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C390" t="s">
         <v>23</v>
@@ -26952,7 +26845,7 @@
         <v>22</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C391" t="s">
         <v>23</v>
@@ -26992,7 +26885,7 @@
         <v>22</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C392" t="s">
         <v>23</v>
@@ -27032,7 +26925,7 @@
         <v>22</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C393" t="s">
         <v>23</v>
@@ -27072,7 +26965,7 @@
         <v>22</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C394" t="s">
         <v>23</v>
@@ -27112,7 +27005,7 @@
         <v>22</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C395" t="s">
         <v>23</v>
@@ -27152,7 +27045,7 @@
         <v>22</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C396" t="s">
         <v>23</v>
@@ -27192,7 +27085,7 @@
         <v>22</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C397" t="s">
         <v>23</v>
@@ -27232,7 +27125,7 @@
         <v>22</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C398" t="s">
         <v>23</v>
@@ -27272,7 +27165,7 @@
         <v>22</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C399" t="s">
         <v>23</v>
@@ -27312,7 +27205,7 @@
         <v>22</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C400" t="s">
         <v>23</v>
@@ -27352,7 +27245,7 @@
         <v>22</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C401" t="s">
         <v>23</v>
@@ -27392,7 +27285,7 @@
         <v>22</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C402" t="s">
         <v>23</v>
@@ -27432,7 +27325,7 @@
         <v>22</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C403" t="s">
         <v>23</v>
@@ -27472,7 +27365,7 @@
         <v>22</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C404" t="s">
         <v>23</v>
@@ -27512,7 +27405,7 @@
         <v>22</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C405" t="s">
         <v>23</v>
@@ -27552,7 +27445,7 @@
         <v>22</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C406" t="s">
         <v>23</v>
@@ -27592,7 +27485,7 @@
         <v>22</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C407" t="s">
         <v>23</v>
@@ -27632,7 +27525,7 @@
         <v>22</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C408" t="s">
         <v>23</v>
@@ -27672,7 +27565,7 @@
         <v>22</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C409" t="s">
         <v>23</v>
@@ -27712,7 +27605,7 @@
         <v>22</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C410" t="s">
         <v>23</v>
@@ -27752,7 +27645,7 @@
         <v>22</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C411" t="s">
         <v>23</v>
@@ -27792,7 +27685,7 @@
         <v>22</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C412" t="s">
         <v>23</v>
@@ -27832,7 +27725,7 @@
         <v>22</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C413" t="s">
         <v>23</v>
@@ -27872,7 +27765,7 @@
         <v>22</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C414" t="s">
         <v>23</v>
@@ -27912,7 +27805,7 @@
         <v>22</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C415" t="s">
         <v>23</v>
@@ -27952,7 +27845,7 @@
         <v>22</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C416" t="s">
         <v>23</v>
@@ -27992,7 +27885,7 @@
         <v>22</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C417" t="s">
         <v>23</v>
@@ -28032,7 +27925,7 @@
         <v>22</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C418" t="s">
         <v>23</v>
@@ -28072,7 +27965,7 @@
         <v>22</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C419" t="s">
         <v>23</v>
@@ -28112,7 +28005,7 @@
         <v>22</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C420" t="s">
         <v>23</v>
@@ -28152,7 +28045,7 @@
         <v>22</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C421" t="s">
         <v>23</v>
@@ -28192,7 +28085,7 @@
         <v>22</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C422" t="s">
         <v>23</v>
@@ -28232,7 +28125,7 @@
         <v>22</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C423" t="s">
         <v>23</v>
@@ -28272,7 +28165,7 @@
         <v>22</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C424" t="s">
         <v>23</v>
@@ -28312,7 +28205,7 @@
         <v>22</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C425" t="s">
         <v>23</v>
@@ -28352,7 +28245,7 @@
         <v>22</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C426" t="s">
         <v>23</v>
@@ -28392,7 +28285,7 @@
         <v>22</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C427" t="s">
         <v>23</v>
@@ -28432,7 +28325,7 @@
         <v>22</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C428" t="s">
         <v>23</v>
@@ -28472,7 +28365,7 @@
         <v>22</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C429" t="s">
         <v>23</v>
@@ -28512,7 +28405,7 @@
         <v>22</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C430" t="s">
         <v>23</v>
@@ -28552,7 +28445,7 @@
         <v>22</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C431" t="s">
         <v>23</v>
@@ -28592,7 +28485,7 @@
         <v>22</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C432" t="s">
         <v>23</v>
@@ -28632,7 +28525,7 @@
         <v>22</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C433" t="s">
         <v>23</v>
@@ -28672,7 +28565,7 @@
         <v>22</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C434" t="s">
         <v>23</v>
@@ -28712,7 +28605,7 @@
         <v>22</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C435" t="s">
         <v>23</v>
@@ -28752,7 +28645,7 @@
         <v>22</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C436" t="s">
         <v>23</v>
@@ -28792,7 +28685,7 @@
         <v>22</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C437" t="s">
         <v>23</v>
@@ -28832,7 +28725,7 @@
         <v>22</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C438" t="s">
         <v>23</v>
@@ -28872,7 +28765,7 @@
         <v>22</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C439" t="s">
         <v>23</v>
@@ -28912,7 +28805,7 @@
         <v>22</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C440" t="s">
         <v>23</v>
@@ -28952,7 +28845,7 @@
         <v>22</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C441" t="s">
         <v>23</v>
@@ -28992,7 +28885,7 @@
         <v>22</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C442" t="s">
         <v>23</v>
@@ -29032,7 +28925,7 @@
         <v>22</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C443" t="s">
         <v>23</v>
@@ -29072,7 +28965,7 @@
         <v>22</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C444" t="s">
         <v>23</v>
@@ -29112,7 +29005,7 @@
         <v>22</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C445" t="s">
         <v>23</v>
@@ -29152,7 +29045,7 @@
         <v>22</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C446" t="s">
         <v>23</v>
@@ -29192,7 +29085,7 @@
         <v>22</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C447" t="s">
         <v>23</v>
@@ -29232,7 +29125,7 @@
         <v>22</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C448" t="s">
         <v>23</v>
@@ -29272,7 +29165,7 @@
         <v>22</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C449" t="s">
         <v>23</v>
@@ -29312,7 +29205,7 @@
         <v>22</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C450" t="s">
         <v>23</v>
@@ -29352,7 +29245,7 @@
         <v>22</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C451" t="s">
         <v>23</v>
@@ -29392,7 +29285,7 @@
         <v>22</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C452" t="s">
         <v>23</v>
@@ -29432,7 +29325,7 @@
         <v>22</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C453" t="s">
         <v>23</v>
@@ -29472,7 +29365,7 @@
         <v>22</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C454" t="s">
         <v>23</v>
@@ -29512,7 +29405,7 @@
         <v>22</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C455" t="s">
         <v>23</v>
@@ -29552,7 +29445,7 @@
         <v>22</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C456" t="s">
         <v>23</v>
@@ -29592,7 +29485,7 @@
         <v>22</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C457" t="s">
         <v>23</v>
@@ -29632,7 +29525,7 @@
         <v>22</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C458" t="s">
         <v>23</v>
@@ -29672,7 +29565,7 @@
         <v>22</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C459" t="s">
         <v>23</v>
@@ -29712,7 +29605,7 @@
         <v>22</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C460" t="s">
         <v>23</v>
@@ -29752,7 +29645,7 @@
         <v>22</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C461" t="s">
         <v>23</v>
@@ -29792,7 +29685,7 @@
         <v>22</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C462" t="s">
         <v>23</v>
@@ -29832,7 +29725,7 @@
         <v>22</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C463" t="s">
         <v>23</v>
@@ -29872,7 +29765,7 @@
         <v>22</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C464" t="s">
         <v>23</v>
@@ -29912,7 +29805,7 @@
         <v>22</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C465" t="s">
         <v>23</v>
@@ -29952,7 +29845,7 @@
         <v>22</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C466" t="s">
         <v>23</v>
@@ -29992,7 +29885,7 @@
         <v>22</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C467" t="s">
         <v>23</v>
@@ -30032,7 +29925,7 @@
         <v>22</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C468" t="s">
         <v>23</v>
@@ -30072,7 +29965,7 @@
         <v>22</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C469" t="s">
         <v>23</v>
@@ -30112,7 +30005,7 @@
         <v>22</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C470" t="s">
         <v>23</v>
@@ -30152,7 +30045,7 @@
         <v>22</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C471" t="s">
         <v>23</v>
@@ -30192,7 +30085,7 @@
         <v>22</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C472" t="s">
         <v>23</v>
@@ -30232,7 +30125,7 @@
         <v>22</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C473" t="s">
         <v>23</v>
@@ -30272,7 +30165,7 @@
         <v>22</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C474" t="s">
         <v>23</v>
@@ -30312,7 +30205,7 @@
         <v>22</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C475" t="s">
         <v>23</v>
@@ -30352,7 +30245,7 @@
         <v>22</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C476" t="s">
         <v>23</v>
@@ -30392,7 +30285,7 @@
         <v>22</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C477" t="s">
         <v>23</v>
@@ -30432,7 +30325,7 @@
         <v>22</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C478" t="s">
         <v>23</v>
@@ -30472,7 +30365,7 @@
         <v>22</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C479" t="s">
         <v>23</v>
@@ -30512,7 +30405,7 @@
         <v>22</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C480" t="s">
         <v>23</v>
@@ -30552,7 +30445,7 @@
         <v>22</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C481" t="s">
         <v>23</v>
@@ -30592,7 +30485,7 @@
         <v>22</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C482" t="s">
         <v>23</v>
@@ -30632,7 +30525,7 @@
         <v>22</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C483" t="s">
         <v>23</v>
@@ -30672,7 +30565,7 @@
         <v>22</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C484" t="s">
         <v>23</v>
@@ -30712,7 +30605,7 @@
         <v>22</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C485" t="s">
         <v>23</v>
@@ -30752,7 +30645,7 @@
         <v>22</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C486" t="s">
         <v>23</v>
@@ -30792,7 +30685,7 @@
         <v>22</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C487" t="s">
         <v>23</v>
@@ -30832,7 +30725,7 @@
         <v>22</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C488" t="s">
         <v>23</v>
@@ -30872,7 +30765,7 @@
         <v>22</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C489" t="s">
         <v>23</v>
@@ -30912,7 +30805,7 @@
         <v>22</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C490" t="s">
         <v>23</v>
@@ -30952,7 +30845,7 @@
         <v>22</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C491" t="s">
         <v>23</v>
@@ -30992,7 +30885,7 @@
         <v>22</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C492" t="s">
         <v>23</v>
@@ -31032,7 +30925,7 @@
         <v>22</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C493" t="s">
         <v>23</v>
@@ -31072,7 +30965,7 @@
         <v>22</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C494" t="s">
         <v>23</v>
@@ -31112,7 +31005,7 @@
         <v>22</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C495" t="s">
         <v>23</v>
@@ -31152,7 +31045,7 @@
         <v>22</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C496" t="s">
         <v>23</v>
@@ -31192,7 +31085,7 @@
         <v>22</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C497" t="s">
         <v>23</v>
@@ -31232,7 +31125,7 @@
         <v>22</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C498" t="s">
         <v>23</v>
@@ -31272,7 +31165,7 @@
         <v>22</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C499" t="s">
         <v>23</v>
@@ -31312,7 +31205,7 @@
         <v>22</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C500" t="s">
         <v>23</v>
@@ -31352,7 +31245,7 @@
         <v>22</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C501" t="s">
         <v>23</v>
@@ -31392,7 +31285,7 @@
         <v>22</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C502" t="s">
         <v>23</v>
@@ -31432,7 +31325,7 @@
         <v>22</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C503" t="s">
         <v>23</v>
@@ -31472,7 +31365,7 @@
         <v>22</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C504" t="s">
         <v>23</v>
@@ -31512,7 +31405,7 @@
         <v>22</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C505" t="s">
         <v>23</v>
@@ -31552,7 +31445,7 @@
         <v>22</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C506" t="s">
         <v>23</v>
@@ -31592,7 +31485,7 @@
         <v>22</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C507" t="s">
         <v>23</v>
@@ -31632,7 +31525,7 @@
         <v>22</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C508" t="s">
         <v>23</v>
@@ -31672,7 +31565,7 @@
         <v>22</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C509" t="s">
         <v>23</v>
@@ -31712,7 +31605,7 @@
         <v>22</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C510" t="s">
         <v>23</v>
@@ -31752,7 +31645,7 @@
         <v>22</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C511" t="s">
         <v>23</v>
@@ -31792,7 +31685,7 @@
         <v>22</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C512" t="s">
         <v>23</v>
@@ -31832,7 +31725,7 @@
         <v>22</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C513" t="s">
         <v>23</v>
@@ -31872,7 +31765,7 @@
         <v>22</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C514" t="s">
         <v>23</v>
@@ -31912,7 +31805,7 @@
         <v>22</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C515" t="s">
         <v>23</v>
@@ -31952,7 +31845,7 @@
         <v>22</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C516" t="s">
         <v>23</v>
@@ -31992,7 +31885,7 @@
         <v>22</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C517" t="s">
         <v>23</v>
@@ -32032,7 +31925,7 @@
         <v>22</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C518" t="s">
         <v>23</v>
@@ -32072,7 +31965,7 @@
         <v>22</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C519" t="s">
         <v>23</v>
@@ -32112,7 +32005,7 @@
         <v>22</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C520" t="s">
         <v>23</v>
@@ -32152,7 +32045,7 @@
         <v>22</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C521" t="s">
         <v>23</v>
@@ -32192,7 +32085,7 @@
         <v>22</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C522" t="s">
         <v>23</v>
@@ -32232,7 +32125,7 @@
         <v>22</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C523" t="s">
         <v>23</v>
@@ -32272,7 +32165,7 @@
         <v>22</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C524" t="s">
         <v>23</v>
@@ -32312,7 +32205,7 @@
         <v>22</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C525" t="s">
         <v>23</v>
@@ -32352,7 +32245,7 @@
         <v>22</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C526" t="s">
         <v>23</v>
@@ -32392,7 +32285,7 @@
         <v>22</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C527" t="s">
         <v>23</v>
@@ -32432,7 +32325,7 @@
         <v>22</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C528" t="s">
         <v>23</v>
@@ -32472,7 +32365,7 @@
         <v>22</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C529" t="s">
         <v>23</v>
@@ -32512,7 +32405,7 @@
         <v>22</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C530" t="s">
         <v>23</v>
@@ -32552,7 +32445,7 @@
         <v>22</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C531" t="s">
         <v>23</v>
@@ -32592,7 +32485,7 @@
         <v>22</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C532" t="s">
         <v>23</v>
@@ -32632,7 +32525,7 @@
         <v>22</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C533" t="s">
         <v>23</v>
@@ -32672,7 +32565,7 @@
         <v>22</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C534" t="s">
         <v>23</v>
@@ -32712,7 +32605,7 @@
         <v>22</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C535" t="s">
         <v>23</v>
@@ -32752,7 +32645,7 @@
         <v>22</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C536" t="s">
         <v>23</v>
@@ -32792,7 +32685,7 @@
         <v>22</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C537" t="s">
         <v>23</v>
@@ -32832,7 +32725,7 @@
         <v>22</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C538" t="s">
         <v>23</v>
@@ -32872,7 +32765,7 @@
         <v>22</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C539" t="s">
         <v>23</v>
@@ -32912,7 +32805,7 @@
         <v>22</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C540" t="s">
         <v>23</v>
@@ -32952,7 +32845,7 @@
         <v>22</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C541" t="s">
         <v>23</v>
@@ -32992,7 +32885,7 @@
         <v>22</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C542" t="s">
         <v>23</v>
@@ -33032,7 +32925,7 @@
         <v>22</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C543" t="s">
         <v>23</v>
@@ -33072,7 +32965,7 @@
         <v>22</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C544" t="s">
         <v>23</v>
@@ -33112,7 +33005,7 @@
         <v>22</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C545" t="s">
         <v>23</v>
@@ -33152,7 +33045,7 @@
         <v>22</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C546" t="s">
         <v>23</v>
@@ -33192,7 +33085,7 @@
         <v>22</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C547" t="s">
         <v>23</v>
@@ -33232,7 +33125,7 @@
         <v>22</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C548" t="s">
         <v>23</v>
@@ -33272,7 +33165,7 @@
         <v>22</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C549" t="s">
         <v>23</v>
@@ -33312,7 +33205,7 @@
         <v>22</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C550" t="s">
         <v>23</v>
@@ -33352,7 +33245,7 @@
         <v>22</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C551" t="s">
         <v>23</v>
@@ -33392,7 +33285,7 @@
         <v>22</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C552" t="s">
         <v>23</v>
@@ -33432,7 +33325,7 @@
         <v>22</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C553" t="s">
         <v>23</v>
@@ -33472,7 +33365,7 @@
         <v>22</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C554" t="s">
         <v>23</v>
@@ -33512,7 +33405,7 @@
         <v>22</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C555" t="s">
         <v>23</v>
@@ -33552,7 +33445,7 @@
         <v>22</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C556" t="s">
         <v>23</v>
@@ -33592,7 +33485,7 @@
         <v>22</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C557" t="s">
         <v>23</v>
@@ -33632,7 +33525,7 @@
         <v>22</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C558" t="s">
         <v>23</v>
@@ -33672,7 +33565,7 @@
         <v>22</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C559" t="s">
         <v>23</v>
@@ -33712,7 +33605,7 @@
         <v>22</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C560" t="s">
         <v>23</v>
@@ -33752,7 +33645,7 @@
         <v>22</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C561" t="s">
         <v>23</v>
@@ -33792,7 +33685,7 @@
         <v>22</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C562" t="s">
         <v>23</v>
@@ -33832,7 +33725,7 @@
         <v>22</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C563" t="s">
         <v>23</v>
@@ -33872,7 +33765,7 @@
         <v>22</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C564" t="s">
         <v>23</v>
@@ -33912,7 +33805,7 @@
         <v>22</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C565" t="s">
         <v>23</v>
@@ -33952,7 +33845,7 @@
         <v>22</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C566" t="s">
         <v>23</v>
@@ -33992,7 +33885,7 @@
         <v>22</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C567" t="s">
         <v>23</v>
@@ -34032,7 +33925,7 @@
         <v>22</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C568" t="s">
         <v>23</v>
@@ -34072,7 +33965,7 @@
         <v>22</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C569" t="s">
         <v>23</v>
@@ -34112,7 +34005,7 @@
         <v>22</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C570" t="s">
         <v>23</v>
@@ -34152,7 +34045,7 @@
         <v>22</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C571" t="s">
         <v>23</v>
@@ -34192,7 +34085,7 @@
         <v>22</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C572" t="s">
         <v>23</v>
@@ -34232,7 +34125,7 @@
         <v>22</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C573" t="s">
         <v>23</v>
@@ -34272,7 +34165,7 @@
         <v>22</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C574" t="s">
         <v>23</v>
@@ -34312,7 +34205,7 @@
         <v>22</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C575" t="s">
         <v>23</v>
@@ -34352,7 +34245,7 @@
         <v>22</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C576" t="s">
         <v>23</v>
@@ -34392,7 +34285,7 @@
         <v>22</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C577" t="s">
         <v>23</v>
@@ -34432,7 +34325,7 @@
         <v>22</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C578" t="s">
         <v>23</v>
@@ -34472,7 +34365,7 @@
         <v>22</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C579" t="s">
         <v>23</v>
@@ -34512,7 +34405,7 @@
         <v>22</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C580" t="s">
         <v>23</v>
@@ -34552,7 +34445,7 @@
         <v>22</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C581" t="s">
         <v>23</v>
@@ -34592,7 +34485,7 @@
         <v>22</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C582" t="s">
         <v>23</v>
@@ -34632,7 +34525,7 @@
         <v>22</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C583" t="s">
         <v>23</v>
@@ -34672,7 +34565,7 @@
         <v>22</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C584" t="s">
         <v>23</v>
@@ -34712,7 +34605,7 @@
         <v>22</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C585" t="s">
         <v>23</v>
@@ -34752,7 +34645,7 @@
         <v>22</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C586" t="s">
         <v>23</v>
@@ -34792,7 +34685,7 @@
         <v>22</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C587" t="s">
         <v>23</v>
@@ -34832,7 +34725,7 @@
         <v>22</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C588" t="s">
         <v>23</v>
@@ -34872,7 +34765,7 @@
         <v>22</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C589" t="s">
         <v>23</v>
@@ -34912,7 +34805,7 @@
         <v>22</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C590" t="s">
         <v>23</v>
@@ -34952,7 +34845,7 @@
         <v>22</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C591" t="s">
         <v>23</v>
@@ -34992,7 +34885,7 @@
         <v>22</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C592" t="s">
         <v>23</v>
@@ -35032,7 +34925,7 @@
         <v>22</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C593" t="s">
         <v>23</v>
@@ -35072,7 +34965,7 @@
         <v>22</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C594" t="s">
         <v>23</v>
@@ -35112,7 +35005,7 @@
         <v>22</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C595" t="s">
         <v>23</v>
@@ -35152,7 +35045,7 @@
         <v>22</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C596" t="s">
         <v>23</v>
@@ -35192,7 +35085,7 @@
         <v>22</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C597" t="s">
         <v>23</v>
@@ -35232,7 +35125,7 @@
         <v>22</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C598" t="s">
         <v>23</v>
@@ -35272,7 +35165,7 @@
         <v>22</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C599" t="s">
         <v>23</v>
@@ -35312,7 +35205,7 @@
         <v>22</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C600" t="s">
         <v>23</v>
@@ -35352,7 +35245,7 @@
         <v>22</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C601" t="s">
         <v>23</v>
@@ -35392,7 +35285,7 @@
         <v>22</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C602" t="s">
         <v>23</v>
@@ -35432,7 +35325,7 @@
         <v>22</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C603" t="s">
         <v>23</v>
@@ -35472,7 +35365,7 @@
         <v>22</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C604" t="s">
         <v>23</v>
@@ -35512,7 +35405,7 @@
         <v>22</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C605" t="s">
         <v>23</v>
@@ -35552,7 +35445,7 @@
         <v>22</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C606" t="s">
         <v>23</v>
@@ -35592,7 +35485,7 @@
         <v>22</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C607" t="s">
         <v>23</v>
@@ -35632,7 +35525,7 @@
         <v>22</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C608" t="s">
         <v>23</v>
@@ -35672,7 +35565,7 @@
         <v>22</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C609" t="s">
         <v>23</v>
@@ -35712,7 +35605,7 @@
         <v>22</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C610" t="s">
         <v>23</v>
@@ -35752,7 +35645,7 @@
         <v>22</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C611" t="s">
         <v>23</v>
@@ -35792,7 +35685,7 @@
         <v>22</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C612" t="s">
         <v>23</v>
@@ -35832,7 +35725,7 @@
         <v>22</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C613" t="s">
         <v>23</v>
@@ -35872,7 +35765,7 @@
         <v>22</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C614" t="s">
         <v>23</v>
@@ -35912,7 +35805,7 @@
         <v>22</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C615" t="s">
         <v>23</v>
@@ -35952,7 +35845,7 @@
         <v>22</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C616" t="s">
         <v>23</v>
@@ -35992,7 +35885,7 @@
         <v>22</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C617" t="s">
         <v>23</v>
@@ -36032,7 +35925,7 @@
         <v>22</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C618" t="s">
         <v>23</v>
@@ -36072,7 +35965,7 @@
         <v>22</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C619" t="s">
         <v>23</v>
@@ -36112,7 +36005,7 @@
         <v>22</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C620" t="s">
         <v>23</v>
@@ -36152,7 +36045,7 @@
         <v>22</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C621" t="s">
         <v>23</v>
@@ -36192,7 +36085,7 @@
         <v>22</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C622" t="s">
         <v>23</v>
@@ -36232,7 +36125,7 @@
         <v>22</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C623" t="s">
         <v>23</v>
@@ -36272,7 +36165,7 @@
         <v>22</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C624" t="s">
         <v>23</v>
@@ -36312,7 +36205,7 @@
         <v>22</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C625" t="s">
         <v>23</v>
@@ -36352,7 +36245,7 @@
         <v>22</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C626" t="s">
         <v>23</v>
@@ -36392,7 +36285,7 @@
         <v>22</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C627" t="s">
         <v>23</v>
@@ -36432,7 +36325,7 @@
         <v>22</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C628" t="s">
         <v>23</v>
@@ -36472,7 +36365,7 @@
         <v>22</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C629" t="s">
         <v>23</v>
@@ -36512,7 +36405,7 @@
         <v>22</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C630" t="s">
         <v>23</v>
@@ -36552,7 +36445,7 @@
         <v>22</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C631" t="s">
         <v>23</v>
@@ -36592,7 +36485,7 @@
         <v>22</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C632" t="s">
         <v>23</v>
@@ -36632,7 +36525,7 @@
         <v>22</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C633" t="s">
         <v>23</v>
@@ -36672,7 +36565,7 @@
         <v>22</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C634" t="s">
         <v>23</v>
@@ -36712,7 +36605,7 @@
         <v>22</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C635" t="s">
         <v>23</v>
@@ -36752,7 +36645,7 @@
         <v>22</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C636" t="s">
         <v>23</v>
@@ -36792,7 +36685,7 @@
         <v>22</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C637" t="s">
         <v>23</v>
@@ -36832,7 +36725,7 @@
         <v>22</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C638" t="s">
         <v>23</v>
@@ -36872,7 +36765,7 @@
         <v>22</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C639" t="s">
         <v>23</v>
@@ -36912,7 +36805,7 @@
         <v>22</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C640" t="s">
         <v>23</v>
@@ -36952,7 +36845,7 @@
         <v>22</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C641" t="s">
         <v>23</v>
@@ -36992,7 +36885,7 @@
         <v>22</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C642" t="s">
         <v>23</v>
@@ -37032,7 +36925,7 @@
         <v>22</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C643" t="s">
         <v>23</v>
@@ -37072,7 +36965,7 @@
         <v>22</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C644" t="s">
         <v>23</v>
@@ -37112,7 +37005,7 @@
         <v>22</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C645" t="s">
         <v>23</v>
@@ -37152,7 +37045,7 @@
         <v>22</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C646" t="s">
         <v>23</v>
@@ -37192,7 +37085,7 @@
         <v>22</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C647" t="s">
         <v>23</v>
@@ -37232,7 +37125,7 @@
         <v>22</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C648" t="s">
         <v>23</v>
@@ -37272,7 +37165,7 @@
         <v>22</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C649" t="s">
         <v>23</v>
@@ -37312,7 +37205,7 @@
         <v>22</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C650" t="s">
         <v>23</v>
@@ -37352,7 +37245,7 @@
         <v>22</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C651" t="s">
         <v>23</v>
@@ -37392,7 +37285,7 @@
         <v>22</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C652" t="s">
         <v>23</v>
@@ -37432,7 +37325,7 @@
         <v>22</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C653" t="s">
         <v>23</v>
@@ -37472,7 +37365,7 @@
         <v>22</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C654" t="s">
         <v>23</v>
@@ -37512,7 +37405,7 @@
         <v>22</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C655" t="s">
         <v>23</v>
@@ -37552,7 +37445,7 @@
         <v>22</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C656" t="s">
         <v>23</v>
@@ -37592,7 +37485,7 @@
         <v>22</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C657" t="s">
         <v>23</v>
@@ -37632,7 +37525,7 @@
         <v>22</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C658" t="s">
         <v>23</v>
@@ -37672,7 +37565,7 @@
         <v>22</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C659" t="s">
         <v>23</v>
@@ -37712,7 +37605,7 @@
         <v>22</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C660" t="s">
         <v>23</v>
@@ -37752,7 +37645,7 @@
         <v>22</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C661" t="s">
         <v>23</v>
@@ -37792,7 +37685,7 @@
         <v>22</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C662" t="s">
         <v>23</v>
@@ -37832,7 +37725,7 @@
         <v>22</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C663" t="s">
         <v>23</v>
@@ -37872,7 +37765,7 @@
         <v>22</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C664" t="s">
         <v>23</v>
@@ -37912,7 +37805,7 @@
         <v>22</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C665" t="s">
         <v>23</v>
@@ -37952,7 +37845,7 @@
         <v>22</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C666" t="s">
         <v>23</v>
@@ -37992,7 +37885,7 @@
         <v>22</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C667" t="s">
         <v>23</v>
@@ -38032,7 +37925,7 @@
         <v>22</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C668" t="s">
         <v>23</v>
@@ -38072,7 +37965,7 @@
         <v>22</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C669" t="s">
         <v>23</v>
@@ -38112,7 +38005,7 @@
         <v>22</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C670" t="s">
         <v>23</v>
@@ -38152,7 +38045,7 @@
         <v>22</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C671" t="s">
         <v>23</v>
@@ -38192,7 +38085,7 @@
         <v>22</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C672" t="s">
         <v>23</v>
@@ -38232,7 +38125,7 @@
         <v>22</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C673" t="s">
         <v>23</v>
@@ -38272,7 +38165,7 @@
         <v>22</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C674" t="s">
         <v>23</v>
@@ -38312,7 +38205,7 @@
         <v>22</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C675" t="s">
         <v>23</v>
@@ -38352,7 +38245,7 @@
         <v>22</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C676" t="s">
         <v>23</v>
@@ -38392,7 +38285,7 @@
         <v>22</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C677" t="s">
         <v>23</v>
@@ -38432,7 +38325,7 @@
         <v>22</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C678" t="s">
         <v>23</v>
@@ -38472,7 +38365,7 @@
         <v>22</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C679" t="s">
         <v>23</v>
@@ -38512,7 +38405,7 @@
         <v>22</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C680" t="s">
         <v>23</v>
@@ -38552,7 +38445,7 @@
         <v>22</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C681" t="s">
         <v>23</v>
@@ -38592,7 +38485,7 @@
         <v>22</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C682" t="s">
         <v>23</v>
@@ -38632,7 +38525,7 @@
         <v>22</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C683" t="s">
         <v>23</v>
@@ -38672,7 +38565,7 @@
         <v>22</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C684" t="s">
         <v>23</v>
@@ -38712,7 +38605,7 @@
         <v>22</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C685" t="s">
         <v>23</v>
@@ -38752,7 +38645,7 @@
         <v>22</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C686" t="s">
         <v>23</v>
@@ -38792,7 +38685,7 @@
         <v>22</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C687" t="s">
         <v>23</v>
@@ -38832,7 +38725,7 @@
         <v>22</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C688" t="s">
         <v>23</v>
@@ -38872,7 +38765,7 @@
         <v>22</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C689" t="s">
         <v>23</v>
@@ -38912,7 +38805,7 @@
         <v>22</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C690" t="s">
         <v>23</v>
@@ -38952,7 +38845,7 @@
         <v>22</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C691" t="s">
         <v>23</v>
@@ -38992,7 +38885,7 @@
         <v>22</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C692" t="s">
         <v>23</v>
@@ -39032,7 +38925,7 @@
         <v>22</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C693" t="s">
         <v>23</v>
@@ -39072,7 +38965,7 @@
         <v>22</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C694" t="s">
         <v>23</v>
@@ -39112,7 +39005,7 @@
         <v>22</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C695" t="s">
         <v>23</v>
@@ -39152,7 +39045,7 @@
         <v>22</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C696" t="s">
         <v>23</v>
@@ -39192,7 +39085,7 @@
         <v>22</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C697" t="s">
         <v>23</v>
@@ -39232,7 +39125,7 @@
         <v>22</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C698" t="s">
         <v>23</v>
@@ -39272,7 +39165,7 @@
         <v>22</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C699" t="s">
         <v>23</v>
@@ -39312,7 +39205,7 @@
         <v>22</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C700" t="s">
         <v>23</v>
@@ -39352,7 +39245,7 @@
         <v>22</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C701" t="s">
         <v>23</v>
@@ -39392,7 +39285,7 @@
         <v>22</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C702" t="s">
         <v>23</v>
@@ -39432,7 +39325,7 @@
         <v>22</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C703" t="s">
         <v>23</v>
@@ -39472,7 +39365,7 @@
         <v>22</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C704" t="s">
         <v>23</v>
@@ -39512,7 +39405,7 @@
         <v>22</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C705" t="s">
         <v>23</v>
@@ -39552,7 +39445,7 @@
         <v>22</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C706" t="s">
         <v>23</v>
@@ -39592,7 +39485,7 @@
         <v>22</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C707" t="s">
         <v>23</v>
@@ -39632,7 +39525,7 @@
         <v>22</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C708" t="s">
         <v>23</v>
@@ -39672,7 +39565,7 @@
         <v>22</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C709" t="s">
         <v>23</v>
@@ -39712,7 +39605,7 @@
         <v>22</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C710" t="s">
         <v>23</v>
@@ -39752,7 +39645,7 @@
         <v>22</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C711" t="s">
         <v>23</v>
@@ -39792,7 +39685,7 @@
         <v>22</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C712" t="s">
         <v>23</v>
@@ -39832,7 +39725,7 @@
         <v>22</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C713" t="s">
         <v>23</v>
@@ -39872,7 +39765,7 @@
         <v>22</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C714" t="s">
         <v>23</v>
@@ -39912,7 +39805,7 @@
         <v>22</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C715" t="s">
         <v>23</v>
@@ -39952,7 +39845,7 @@
         <v>22</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C716" t="s">
         <v>23</v>
@@ -39992,7 +39885,7 @@
         <v>22</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C717" t="s">
         <v>23</v>
@@ -40032,7 +39925,7 @@
         <v>22</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C718" t="s">
         <v>23</v>
@@ -40072,7 +39965,7 @@
         <v>22</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C719" t="s">
         <v>23</v>
@@ -40112,7 +40005,7 @@
         <v>22</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C720" t="s">
         <v>23</v>
@@ -40152,7 +40045,7 @@
         <v>22</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C721" t="s">
         <v>23</v>
@@ -40192,7 +40085,7 @@
         <v>22</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C722" t="s">
         <v>23</v>
@@ -40232,7 +40125,7 @@
         <v>22</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C723" t="s">
         <v>23</v>
@@ -40272,7 +40165,7 @@
         <v>22</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C724" t="s">
         <v>23</v>
@@ -40312,7 +40205,7 @@
         <v>22</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C725" t="s">
         <v>23</v>
@@ -40352,7 +40245,7 @@
         <v>22</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C726" t="s">
         <v>23</v>
@@ -40392,7 +40285,7 @@
         <v>22</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C727" t="s">
         <v>23</v>
@@ -40432,7 +40325,7 @@
         <v>22</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C728" t="s">
         <v>23</v>
@@ -40472,7 +40365,7 @@
         <v>22</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C729" t="s">
         <v>23</v>
@@ -40512,7 +40405,7 @@
         <v>22</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C730" t="s">
         <v>23</v>
@@ -40552,7 +40445,7 @@
         <v>22</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C731" t="s">
         <v>23</v>
@@ -40592,7 +40485,7 @@
         <v>22</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C732" t="s">
         <v>23</v>
@@ -40632,7 +40525,7 @@
         <v>22</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C733" t="s">
         <v>23</v>
@@ -40672,7 +40565,7 @@
         <v>22</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C734" t="s">
         <v>23</v>
@@ -40712,7 +40605,7 @@
         <v>22</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C735" t="s">
         <v>23</v>
@@ -40752,7 +40645,7 @@
         <v>22</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C736" t="s">
         <v>23</v>
@@ -40792,7 +40685,7 @@
         <v>22</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C737" t="s">
         <v>23</v>
@@ -40832,7 +40725,7 @@
         <v>22</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C738" t="s">
         <v>23</v>
